--- a/AtividadeB-teste de mesa.xlsx
+++ b/AtividadeB-teste de mesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Downloads\Atividade(Lista de problemas - Função SE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2DDD34-C15B-4C5E-8876-2E38A62E6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CE2DDD34-C15B-4C5E-8876-2E38A62E6A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{876EB779-CD3C-47A0-A88B-591B8257E78A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC694C02-9CDD-4A08-B15C-360CD9FF1BD9}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +546,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5000</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
